--- a/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
+++ b/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
@@ -943,4 +943,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="07e1bd31056440edbffe4983db46a097">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4352c450c4ad1c8576d7c278c1a2353" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE75384-EB2B-40DB-9DA0-568B2E6975DA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC1CADE-B791-4F9A-B1EA-0EA8C820433A}"/>
 </file>
--- a/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
+++ b/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
@@ -1,177 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Report/charts_and_images/uso_excesivo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_696E33FB13FB3358B39E7EFC0703D0817859A5F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8509A9B0-E26B-7E47-BB31-77C5F4BC3EBD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24140" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipo de control" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Uso fuerza tiempo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Uso fuerza corporacion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tipo de control" sheetId="1" r:id="rId1"/>
+    <sheet name="Uso fuerza tiempo" sheetId="2" r:id="rId2"/>
+    <sheet name="Uso fuerza corporacion" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">n_obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value2plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control mediamente &lt;br&gt;contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_cooperativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controles &lt;br&gt;cooperativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_sometimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tácticas de &lt;br&gt;sometimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_defensivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tácticas &lt;br&gt;defensivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_letal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuerza &lt;br&gt;letal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anio_arresto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uso_excesivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejército o Marina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Estatal Ministerial o Judicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Estatal Ministerial &lt;br&gt;o Judicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Federal Ministerial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policía Estatal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operativo Conjunto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+  <si>
+    <t>n_obs</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>value2plot</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>order_var</t>
+  </si>
+  <si>
+    <t>control_contacto</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>Control mediamente &lt;br&gt;contacto</t>
+  </si>
+  <si>
+    <t>control_cooperativo</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>Controles &lt;br&gt;cooperativos</t>
+  </si>
+  <si>
+    <t>control_sometimiento</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>Tácticas de &lt;br&gt;sometimiento</t>
+  </si>
+  <si>
+    <t>control_defensivo</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>Tácticas &lt;br&gt;defensivas</t>
+  </si>
+  <si>
+    <t>control_letal</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>Fuerza &lt;br&gt;letal</t>
+  </si>
+  <si>
+    <t>Anio_arresto</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>uso_excesivo</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>group_var</t>
+  </si>
+  <si>
+    <t>Ejército o Marina</t>
+  </si>
+  <si>
+    <t>Policía Federal</t>
+  </si>
+  <si>
+    <t>Policía Estatal Ministerial o Judicial</t>
+  </si>
+  <si>
+    <t>Policía Estatal Ministerial &lt;br&gt;o Judicial</t>
+  </si>
+  <si>
+    <t>Policía Municipal</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>Policía Federal Ministerial</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>Policía Estatal</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>Operativo Conjunto</t>
+  </si>
+  <si>
+    <t>80%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -207,6 +227,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,14 +517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,14 +544,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>34493</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>86.0476803718946</v>
       </c>
       <c r="D2" t="s">
@@ -531,19 +560,19 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>34493</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>50.7285601888281</v>
+      <c r="C3">
+        <v>50.728560188828098</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -551,19 +580,19 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>34493</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>48.4730303506844</v>
+      <c r="C4">
+        <v>48.473030350684397</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -571,19 +600,19 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>34493</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>40.2740673224998</v>
+      <c r="C5">
+        <v>40.274067322499803</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -591,19 +620,19 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>34493</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.74352527030479</v>
+      <c r="C6">
+        <v>9.7435252703047901</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -611,25 +640,27 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -649,14 +680,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="n">
-        <v>68.9034369885434</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>68.903436988543405</v>
+      </c>
+      <c r="C2">
         <v>1457</v>
       </c>
       <c r="D2" t="s">
@@ -665,18 +696,18 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2015</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="n">
-        <v>62.406015037594</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>62.406015037594003</v>
+      </c>
+      <c r="C3">
         <v>2360</v>
       </c>
       <c r="D3" t="s">
@@ -685,18 +716,18 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2016</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
-        <v>61.3771517996872</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>61.377151799687198</v>
+      </c>
+      <c r="C4">
         <v>3730</v>
       </c>
       <c r="D4" t="s">
@@ -705,18 +736,18 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2017</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>61.148497083894</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5133</v>
       </c>
       <c r="D5" t="s">
@@ -725,18 +756,18 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="n">
-        <v>60.60655470406</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>60.606554704060002</v>
+      </c>
+      <c r="C6">
         <v>7010</v>
       </c>
       <c r="D6" t="s">
@@ -745,18 +776,18 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="n">
-        <v>57.675467692716</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>57.675467692715998</v>
+      </c>
+      <c r="C7">
         <v>8646</v>
       </c>
       <c r="D7" t="s">
@@ -765,18 +796,18 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2020</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="n">
-        <v>53.6274800118448</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>53.627480011844803</v>
+      </c>
+      <c r="C8">
         <v>3900</v>
       </c>
       <c r="D8" t="s">
@@ -785,25 +816,25 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -820,14 +851,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="n">
-        <v>57.6502732240437</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>57.650273224043701</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
       <c r="D2" t="s">
@@ -837,14 +868,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="n">
-        <v>57.7081615828524</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>57.708161582852398</v>
+      </c>
+      <c r="C3">
         <v>-2</v>
       </c>
       <c r="D3" t="s">
@@ -854,14 +885,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
-        <v>57.7196692943662</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>57.719669294366199</v>
+      </c>
+      <c r="C4">
         <v>-3</v>
       </c>
       <c r="D4" t="s">
@@ -871,14 +902,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="n">
-        <v>58.5172608941706</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>58.517260894170597</v>
+      </c>
+      <c r="C5">
         <v>-4</v>
       </c>
       <c r="D5" t="s">
@@ -888,14 +919,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="n">
-        <v>62.6873661670235</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>62.687366167023498</v>
+      </c>
+      <c r="C6">
         <v>-5</v>
       </c>
       <c r="D6" t="s">
@@ -905,14 +936,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="n">
-        <v>64.8054517476369</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>64.805451747636894</v>
+      </c>
+      <c r="C7">
         <v>-6</v>
       </c>
       <c r="D7" t="s">
@@ -922,14 +953,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="n">
-        <v>80.2139037433155</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>80.213903743315498</v>
+      </c>
+      <c r="C8">
         <v>-7</v>
       </c>
       <c r="D8" t="s">
@@ -941,13 +972,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="07e1bd31056440edbffe4983db46a097">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4352c450c4ad1c8576d7c278c1a2353" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="945da4d08d468567d8c9e61b4059a70e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd61a94cdeda55e8e0dfec1c50450dee" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:element name="properties">
@@ -1013,7 +1044,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1062,7 +1093,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1081,7 +1112,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1098,8 +1129,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1197,10 +1228,29 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE75384-EB2B-40DB-9DA0-568B2E6975DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7849F3B8-537C-452A-AA8F-41DF4065DE8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC1CADE-B791-4F9A-B1EA-0EA8C820433A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC1CADE-B791-4F9A-B1EA-0EA8C820433A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEC59A6-4ED1-42F4-8990-988A2DA3EE06}"/>
 </file>
--- a/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
+++ b/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
@@ -1,197 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/mexico/MEX Research Team/FEDERAL AWARDS/ENPOL/Data/National/Report/charts_and_images/uso_excesivo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_696E33FB13FB3358B39E7EFC0703D0817859A5F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8509A9B0-E26B-7E47-BB31-77C5F4BC3EBD}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24140" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipo de control" sheetId="1" r:id="rId1"/>
-    <sheet name="Uso fuerza tiempo" sheetId="2" r:id="rId2"/>
-    <sheet name="Uso fuerza corporacion" sheetId="3" r:id="rId3"/>
+    <sheet name="Tipo de control" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Uso fuerza tiempo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Uso fuerza corporacion" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
-  <si>
-    <t>n_obs</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>value2plot</t>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>order_var</t>
-  </si>
-  <si>
-    <t>control_contacto</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>Control mediamente &lt;br&gt;contacto</t>
-  </si>
-  <si>
-    <t>control_cooperativo</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>Controles &lt;br&gt;cooperativos</t>
-  </si>
-  <si>
-    <t>control_sometimiento</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>Tácticas de &lt;br&gt;sometimiento</t>
-  </si>
-  <si>
-    <t>control_defensivo</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>Tácticas &lt;br&gt;defensivas</t>
-  </si>
-  <si>
-    <t>control_letal</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>Fuerza &lt;br&gt;letal</t>
-  </si>
-  <si>
-    <t>Anio_arresto</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>uso_excesivo</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>group_var</t>
-  </si>
-  <si>
-    <t>Ejército o Marina</t>
-  </si>
-  <si>
-    <t>Policía Federal</t>
-  </si>
-  <si>
-    <t>Policía Estatal Ministerial o Judicial</t>
-  </si>
-  <si>
-    <t>Policía Estatal Ministerial &lt;br&gt;o Judicial</t>
-  </si>
-  <si>
-    <t>Policía Municipal</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>Policía Federal Ministerial</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>Policía Estatal</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>Operativo Conjunto</t>
-  </si>
-  <si>
-    <t>80%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">n_obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value2plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control mediamente &lt;br&gt;contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_cooperativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controles &lt;br&gt;cooperativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_sometimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tácticas de &lt;br&gt;sometimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_defensivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tácticas &lt;br&gt;defensivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_letal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuerza &lt;br&gt;letal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anio_arresto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uso_excesivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Estatal Ministerial o Judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Estatal Ministerial &lt;br&gt;o Judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejército o Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Federal Ministerial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policía Estatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operativo Conjunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -227,15 +210,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -517,14 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,15 +518,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>34493</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32236</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>86.0476803718946</v>
+      <c r="C2" t="n">
+        <v>86.2651573679082</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -560,19 +534,19 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>34493</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32236</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>50.728560188828098</v>
+      <c r="C3" t="n">
+        <v>51.2686768071072</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -580,19 +554,19 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>34493</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32236</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>48.473030350684397</v>
+      <c r="C4" t="n">
+        <v>47.7398089600418</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -600,19 +574,19 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>34493</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32236</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>40.274067322499803</v>
+      <c r="C5" t="n">
+        <v>39.5146381634228</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -620,19 +594,19 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>34493</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32236</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>9.7435252703047901</v>
+      <c r="C6" t="n">
+        <v>9.52268907563057</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -640,27 +614,25 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -680,14 +652,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>68.903436988543405</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>68.9034369885434</v>
+      </c>
+      <c r="C2" t="n">
         <v>1457</v>
       </c>
       <c r="D2" t="s">
@@ -696,18 +668,18 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
-        <v>62.406015037594003</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>62.406015037594</v>
+      </c>
+      <c r="C3" t="n">
         <v>2360</v>
       </c>
       <c r="D3" t="s">
@@ -716,18 +688,18 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
-        <v>61.377151799687198</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>61.3771517996872</v>
+      </c>
+      <c r="C4" t="n">
         <v>3730</v>
       </c>
       <c r="D4" t="s">
@@ -736,18 +708,18 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>61.148497083894</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>5133</v>
       </c>
       <c r="D5" t="s">
@@ -756,18 +728,18 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>60.606554704060002</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>60.60655470406</v>
+      </c>
+      <c r="C6" t="n">
         <v>7010</v>
       </c>
       <c r="D6" t="s">
@@ -776,18 +748,18 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>57.675467692715998</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>57.675467692716</v>
+      </c>
+      <c r="C7" t="n">
         <v>8646</v>
       </c>
       <c r="D7" t="s">
@@ -796,18 +768,18 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8">
-        <v>53.627480011844803</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>53.6274800118448</v>
+      </c>
+      <c r="C8" t="n">
         <v>3900</v>
       </c>
       <c r="D8" t="s">
@@ -816,25 +788,25 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -851,134 +823,134 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
-        <v>57.650273224043701</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>55.2655265526552</v>
+      </c>
+      <c r="C2" t="n">
         <v>-1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>57.708161582852398</v>
-      </c>
-      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56.4603240548398</v>
+      </c>
+      <c r="C3" t="n">
         <v>-2</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56.8376068376069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58.1306171360095</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>57.719669294366199</v>
-      </c>
-      <c r="C4">
-        <v>-3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>58.517260894170597</v>
-      </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>62.687366167023498</v>
-      </c>
-      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61.3163972286375</v>
+      </c>
+      <c r="C6" t="n">
         <v>-5</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>64.805451747636894</v>
-      </c>
-      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n">
+        <v>64.4485807352258</v>
+      </c>
+      <c r="C7" t="n">
         <v>-6</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>80.213903743315498</v>
-      </c>
-      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79.3478260869565</v>
+      </c>
+      <c r="C8" t="n">
         <v>-7</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="945da4d08d468567d8c9e61b4059a70e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd61a94cdeda55e8e0dfec1c50450dee" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="07e1bd31056440edbffe4983db46a097">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4352c450c4ad1c8576d7c278c1a2353" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:element name="properties">
@@ -1044,7 +1016,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1093,7 +1065,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1112,7 +1084,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1129,8 +1101,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1228,29 +1200,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7849F3B8-537C-452A-AA8F-41DF4065DE8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F12D07-E319-4C30-9837-E3276980D447}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC1CADE-B791-4F9A-B1EA-0EA8C820433A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEC59A6-4ED1-42F4-8990-988A2DA3EE06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3605570-1007-403D-90CB-BE0E06092C3B}"/>
 </file>
--- a/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
+++ b/National/Report/charts_and_images/uso_excesivo/uso_excesivo_fuerza.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">control_sometimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">48%</t>
+    <t xml:space="preserve">47%</t>
   </si>
   <si>
     <t xml:space="preserve">Tácticas de &lt;br&gt;sometimiento</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">control_defensivo</t>
   </si>
   <si>
-    <t xml:space="preserve">40%</t>
+    <t xml:space="preserve">39%</t>
   </si>
   <si>
     <t xml:space="preserve">Tácticas &lt;br&gt;defensivas</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">control_letal</t>
   </si>
   <si>
-    <t xml:space="preserve">10%</t>
+    <t xml:space="preserve">9%</t>
   </si>
   <si>
     <t xml:space="preserve">Fuerza &lt;br&gt;letal</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">69%</t>
+    <t xml:space="preserve">68%</t>
   </si>
   <si>
     <t xml:space="preserve">uso_excesivo</t>
@@ -112,19 +112,22 @@
     <t xml:space="preserve">2018</t>
   </si>
   <si>
+    <t xml:space="preserve">60%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">58%</t>
+    <t xml:space="preserve">56%</t>
   </si>
   <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">54%</t>
+    <t xml:space="preserve">52%</t>
   </si>
   <si>
     <t xml:space="preserve">group_var</t>
@@ -139,9 +142,6 @@
     <t xml:space="preserve">Policía Estatal Ministerial o Judicial</t>
   </si>
   <si>
-    <t xml:space="preserve">56%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policía Estatal Ministerial &lt;br&gt;o Judicial</t>
   </si>
   <si>
@@ -160,13 +160,13 @@
     <t xml:space="preserve">Policía Estatal</t>
   </si>
   <si>
-    <t xml:space="preserve">64%</t>
+    <t xml:space="preserve">63%</t>
   </si>
   <si>
     <t xml:space="preserve">Operativo Conjunto</t>
   </si>
   <si>
-    <t xml:space="preserve">79%</t>
+    <t xml:space="preserve">78%</t>
   </si>
 </sst>
 </file>
@@ -520,13 +520,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32236</v>
+        <v>35337</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>86.2651573679082</v>
+        <v>86.2905709182731</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32236</v>
+        <v>35337</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>51.2686768071072</v>
+        <v>50.9703495726761</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -560,13 +560,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32236</v>
+        <v>35337</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>47.7398089600418</v>
+        <v>47.0116573120346</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32236</v>
+        <v>35337</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>39.5146381634228</v>
+        <v>38.9720835644294</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32236</v>
+        <v>35337</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>9.52268907563057</v>
+        <v>9.33657905278463</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>68.9034369885434</v>
+        <v>68.2887266828873</v>
       </c>
       <c r="C2" t="n">
         <v>1457</v>
@@ -677,10 +677,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>62.406015037594</v>
+        <v>62.1739130434782</v>
       </c>
       <c r="C3" t="n">
-        <v>2360</v>
+        <v>2453</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -697,10 +697,10 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>61.3771517996872</v>
+        <v>60.6242840778924</v>
       </c>
       <c r="C4" t="n">
-        <v>3730</v>
+        <v>4044</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -717,13 +717,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>61.148497083894</v>
+        <v>60.1865284974093</v>
       </c>
       <c r="C5" t="n">
-        <v>5133</v>
+        <v>5534</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="n">
+        <v>59.5352915387985</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7823</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="n">
-        <v>60.60655470406</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7010</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>57.675467692716</v>
+        <v>56.3121927826403</v>
       </c>
       <c r="C7" t="n">
-        <v>8646</v>
+        <v>9545</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>53.6274800118448</v>
+        <v>52.0984455958549</v>
       </c>
       <c r="C8" t="n">
-        <v>3900</v>
+        <v>4481</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -808,7 +808,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -825,33 +825,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="n">
-        <v>55.2655265526552</v>
+        <v>55.2436003303055</v>
       </c>
       <c r="C2" t="n">
         <v>-1</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>56.4603240548398</v>
+        <v>55.2604411074608</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -862,7 +862,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>56.8376068376069</v>
+        <v>56.5912117177098</v>
       </c>
       <c r="C4" t="n">
         <v>-3</v>
@@ -879,13 +879,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>58.1306171360095</v>
+        <v>56.7741935483874</v>
       </c>
       <c r="C5" t="n">
         <v>-4</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -896,13 +896,13 @@
         <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>61.3163972286375</v>
+        <v>61.7803837953092</v>
       </c>
       <c r="C6" t="n">
         <v>-5</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -913,7 +913,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="n">
-        <v>64.4485807352258</v>
+        <v>62.5710077845572</v>
       </c>
       <c r="C7" t="n">
         <v>-6</v>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>79.3478260869565</v>
+        <v>78.3244680851064</v>
       </c>
       <c r="C8" t="n">
         <v>-7</v>
@@ -1201,9 +1201,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F12D07-E319-4C30-9837-E3276980D447}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B97CA4-7214-4192-8751-EB1F9A9EBB0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3605570-1007-403D-90CB-BE0E06092C3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FA47CA-0701-4DB4-9A01-E8103B8F5B3A}"/>
 </file>